--- a/Dantong Xue_Sprint0/Game1/Game1/Maps/Room/3.xlsx
+++ b/Dantong Xue_Sprint0/Game1/Game1/Maps/Room/3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repo\CSE-3902\Dantong Xue_Sprint0\Game1\Game1\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repo\CSE-3902\Dantong Xue_Sprint0\Game1\Game1\Maps\Room\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30676139-4796-44BB-894E-6D830FA7817D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71C4DE-464C-4115-91E2-15A8541F0D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="4">
   <si>
     <t>wallGrey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,8 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>walBW</t>
+    <t>invisible</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallBW</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13:AD14"/>
+      <selection activeCell="O5" sqref="O5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -436,15 +439,15 @@
   <sheetData>
     <row r="1" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
@@ -452,51 +455,51 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF1" s="2"/>
     </row>
@@ -536,15 +539,15 @@
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
@@ -552,51 +555,51 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="2"/>
     </row>
@@ -636,15 +639,15 @@
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
@@ -652,37 +655,51 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="T5" s="2"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="V5" s="2"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="X5" s="2"/>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="2"/>
       <c r="AE5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="2"/>
     </row>
@@ -722,15 +739,15 @@
     </row>
     <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
@@ -738,37 +755,51 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="T7" s="2"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="V7" s="2"/>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="2"/>
     </row>
@@ -808,15 +839,15 @@
     </row>
     <row r="9" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
@@ -824,37 +855,51 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="R9" s="2"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="T9" s="2"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="V9" s="2"/>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="2"/>
     </row>
@@ -894,15 +939,15 @@
     </row>
     <row r="11" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1" t="s">
@@ -910,15 +955,15 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
@@ -936,11 +981,11 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="2"/>
     </row>
@@ -980,15 +1025,15 @@
     </row>
     <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
@@ -996,31 +1041,31 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1" t="s">
@@ -1028,19 +1073,19 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="2"/>
     </row>
@@ -1080,11 +1125,11 @@
     </row>
     <row r="15" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
@@ -1095,34 +1140,52 @@
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="T15" s="2"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="2"/>
     </row>
@@ -1162,11 +1225,11 @@
     </row>
     <row r="17" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -1200,11 +1263,11 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="2"/>
     </row>
@@ -1244,67 +1307,67 @@
     </row>
     <row r="19" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF19" s="2"/>
     </row>
@@ -1344,67 +1407,67 @@
     </row>
     <row r="21" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD21" s="2"/>
       <c r="AE21" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF21" s="2"/>
     </row>
@@ -1444,14 +1507,6 @@
     </row>
   </sheetData>
   <mergeCells count="176">
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="AC21:AD22"/>
-    <mergeCell ref="AE21:AF22"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="S21:T22"/>
     <mergeCell ref="U21:V22"/>
     <mergeCell ref="W21:X22"/>
     <mergeCell ref="Y19:Z20"/>
@@ -1470,10 +1525,14 @@
     <mergeCell ref="S19:T20"/>
     <mergeCell ref="U19:V20"/>
     <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA17:AB18"/>
-    <mergeCell ref="AC17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="AC21:AD22"/>
+    <mergeCell ref="AE21:AF22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="S21:T22"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="E19:F20"/>
@@ -1483,9 +1542,6 @@
     <mergeCell ref="M17:N18"/>
     <mergeCell ref="O17:P18"/>
     <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="S17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:X18"/>
     <mergeCell ref="Y15:Z16"/>
     <mergeCell ref="AA15:AB16"/>
     <mergeCell ref="AC15:AD16"/>
@@ -1502,10 +1558,13 @@
     <mergeCell ref="S15:T16"/>
     <mergeCell ref="U15:V16"/>
     <mergeCell ref="W15:X16"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA17:AB18"/>
+    <mergeCell ref="AC17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="S17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:X18"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="E15:F16"/>
@@ -1515,9 +1574,6 @@
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="O13:P14"/>
     <mergeCell ref="Q13:R14"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="U13:V14"/>
-    <mergeCell ref="W13:X14"/>
     <mergeCell ref="Y11:Z12"/>
     <mergeCell ref="AA11:AB12"/>
     <mergeCell ref="AC11:AD12"/>
@@ -1534,10 +1590,13 @@
     <mergeCell ref="S11:T12"/>
     <mergeCell ref="U11:V12"/>
     <mergeCell ref="W11:X12"/>
-    <mergeCell ref="Y9:Z10"/>
-    <mergeCell ref="AA9:AB10"/>
-    <mergeCell ref="AC9:AD10"/>
-    <mergeCell ref="AE9:AF10"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="AC13:AD14"/>
+    <mergeCell ref="AE13:AF14"/>
+    <mergeCell ref="S13:T14"/>
+    <mergeCell ref="U13:V14"/>
+    <mergeCell ref="W13:X14"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E11:F12"/>
@@ -1547,9 +1606,6 @@
     <mergeCell ref="M9:N10"/>
     <mergeCell ref="O9:P10"/>
     <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="S9:T10"/>
-    <mergeCell ref="U9:V10"/>
-    <mergeCell ref="W9:X10"/>
     <mergeCell ref="Y7:Z8"/>
     <mergeCell ref="AA7:AB8"/>
     <mergeCell ref="AC7:AD8"/>
@@ -1566,10 +1622,13 @@
     <mergeCell ref="S7:T8"/>
     <mergeCell ref="U7:V8"/>
     <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="Y9:Z10"/>
+    <mergeCell ref="AA9:AB10"/>
+    <mergeCell ref="AC9:AD10"/>
+    <mergeCell ref="AE9:AF10"/>
+    <mergeCell ref="S9:T10"/>
+    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="W9:X10"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:F8"/>
@@ -1579,11 +1638,6 @@
     <mergeCell ref="M5:N6"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
     <mergeCell ref="AC3:AD4"/>
     <mergeCell ref="AE3:AF4"/>
     <mergeCell ref="A5:B6"/>
@@ -1598,6 +1652,13 @@
     <mergeCell ref="S3:T4"/>
     <mergeCell ref="U3:V4"/>
     <mergeCell ref="W3:X4"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W5:X6"/>
     <mergeCell ref="Y1:Z2"/>
     <mergeCell ref="AA1:AB2"/>
     <mergeCell ref="AC1:AD2"/>
@@ -1620,6 +1681,8 @@
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="K1:L2"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
